--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Bug List</t>
   </si>
@@ -64,6 +64,9 @@
     <t>open</t>
   </si>
   <si>
+    <t>Justin</t>
+  </si>
+  <si>
     <t>Sometimes player sprite will fly off the edge while still pressing an arrow key (will reappear on release)</t>
   </si>
   <si>
@@ -101,9 +104,6 @@
 the character was an enemy and forgotten to call add an else case</t>
   </si>
   <si>
-    <t>Justin</t>
-  </si>
-  <si>
     <t>Hans</t>
   </si>
   <si>
@@ -122,6 +122,9 @@
     <t>P2</t>
   </si>
   <si>
+    <t>Deo</t>
+  </si>
+  <si>
     <t>Damage will occasionally spike to huge values for no reason</t>
   </si>
   <si>
@@ -132,6 +135,9 @@
   </si>
   <si>
     <t>keep attacking and you will see the random spike in value</t>
+  </si>
+  <si>
+    <t>Ameya</t>
   </si>
   <si>
     <t>Game crashes if enemy is attacked after a specific restart</t>
@@ -297,11 +303,11 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -654,18 +660,20 @@
       <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>18</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="5"/>
@@ -692,25 +700,25 @@
         <v>45333.0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>22</v>
+      <c r="G5" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="6"/>
       <c r="K5" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -736,25 +744,25 @@
         <v>45334.0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>24</v>
+      <c r="G6" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -779,26 +787,26 @@
       <c r="B7" s="11">
         <v>45334.0</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>19</v>
+      <c r="E7" s="12" t="s">
+        <v>22</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>25</v>
+      <c r="F7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -817,34 +825,34 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>5.0</v>
       </c>
       <c r="B8" s="11">
         <v>45338.0</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>27</v>
+      <c r="C8" s="12" t="s">
+        <v>15</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="13" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="6"/>
@@ -865,33 +873,35 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>6.0</v>
       </c>
       <c r="B9" s="11">
         <v>45338.0</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>27</v>
+      <c r="C9" s="12" t="s">
+        <v>15</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="13" t="s">
         <v>37</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="5"/>
@@ -911,36 +921,38 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>7.0</v>
       </c>
       <c r="B10" s="11">
         <v>45338.0</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>27</v>
+      <c r="C10" s="12" t="s">
+        <v>15</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>20</v>
+      <c r="D10" s="12" t="s">
+        <v>21</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="G10" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>39</v>
+      <c r="I10" s="13" t="s">
+        <v>41</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>40</v>
+      <c r="J10" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -28701,10 +28713,10 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
@@ -28712,15 +28724,15 @@
         <v>13</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -28728,31 +28740,31 @@
         <v>33</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1"/>
